--- a/Group_7_TestPlan.xlsx
+++ b/Group_7_TestPlan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba8bb3ba8fa52c85/Dokumente/TUT/Embedded Systems and Electronics Productization/Project/MySynth_ELT-23056/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Dokumente\TUT\Embedded Systems and Electronics Productization\Project\MySynth_ELT-23056\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{09673CDE-9B26-4494-B4AB-402C31CFF383}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6BECC381-B4CD-49FB-ACF8-0714DA4D5186}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="8_{09673CDE-9B26-4494-B4AB-402C31CFF383}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{811F696A-5FC4-4EF3-8828-C51797B9FACF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{1F5BFFA0-4282-47FF-87C3-4E852344A670}"/>
   </bookViews>
@@ -308,6 +308,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -316,12 +322,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -353,17 +353,17 @@
       <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -379,16 +379,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CEA1CA9-EB5D-4EAF-9B9D-358CC8D2EDB2}" name="Tabelle1" displayName="Tabelle1" ref="A2:H30" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CEA1CA9-EB5D-4EAF-9B9D-358CC8D2EDB2}" name="Tabelle1" displayName="Tabelle1" ref="A2:H30" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{733D2172-2B42-4CF3-A4DB-623EDE198FB0}" name="Test Id" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{A572455D-C3BC-4708-B1A2-BD879E1C5BEC}" name="Test Type" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{21BCFFF7-DABF-41CC-88B5-E722FE51D7F6}" name="Test description" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4DCE7B35-0A87-4DD5-873B-43BD7023B656}" name="Conditions" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{689C463B-96BF-4933-98AA-C9C1037930F6}" name="Expected Result" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{58BBCF0A-6270-4D46-BDA6-02C634EA9E6E}" name="Actual result" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{7DDE679E-F1D4-4722-AC10-4BEC70D5B24A}" name="Notes" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{DE48A7CF-807B-46EC-8AB7-B2AC6E378D2E}" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{733D2172-2B42-4CF3-A4DB-623EDE198FB0}" name="Test Id" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{A572455D-C3BC-4708-B1A2-BD879E1C5BEC}" name="Test Type" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{21BCFFF7-DABF-41CC-88B5-E722FE51D7F6}" name="Test description" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{4DCE7B35-0A87-4DD5-873B-43BD7023B656}" name="Conditions" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{689C463B-96BF-4933-98AA-C9C1037930F6}" name="Expected Result" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{58BBCF0A-6270-4D46-BDA6-02C634EA9E6E}" name="Actual result" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{7DDE679E-F1D4-4722-AC10-4BEC70D5B24A}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{DE48A7CF-807B-46EC-8AB7-B2AC6E378D2E}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -691,445 +691,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBC05AD-1F47-4387-881B-3A679421B32A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A1:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="38" style="5" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
     </row>
@@ -1139,7 +1142,7 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
